--- a/src/accounting/danhmucmaypos.xlsx
+++ b/src/accounting/danhmucmaypos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="POS_BIDV" sheetId="1" state="visible" r:id="rId3"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">POS_BIDV!$1:$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">POS_BIDV!$A$1:$F$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">POS_BIDV!$A$1:$F$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">pos_bidv!#ref!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="178">
   <si>
     <t xml:space="preserve">Mã TIP</t>
   </si>
@@ -399,6 +399,282 @@
   </si>
   <si>
     <t xml:space="preserve">GH 1S21-B, TTTM Go Cần Thơ, Lô số 1, KDC Hưng Phú 1, P.Hưng Phú, Q.Cái Răng, TP.Cần Thơ, Việt Nam</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">_TIMESCT</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">POS bo sung</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">_LUGTHD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">_VCBTRIEU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">GO TLONG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">PSQ1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">NHATRANG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">LUGVHM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">GO DIAN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">GO HLONG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">GOLBIEN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">LUGLBB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">_THD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">VC304</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">MPOS2101196504</t>
@@ -530,7 +806,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,12 +905,37 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -653,22 +954,8 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color theme="0" tint="-0.5"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -708,7 +995,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -718,6 +1005,20 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -761,7 +1062,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -846,23 +1147,43 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,15 +1191,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -902,15 +1223,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -926,7 +1247,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -938,7 +1259,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -946,31 +1267,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -986,7 +1307,7 @@
     <cellStyle name="Normal 2 2" xfId="21"/>
     <cellStyle name="Normal 3" xfId="22"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -998,14 +1319,6 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF0000FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF808080"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1294,14 +1607,14 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="50.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="33.4"/>
@@ -1333,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="76.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -1356,7 +1669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="n">
         <v>14100397</v>
       </c>
@@ -1379,7 +1692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1402,7 +1715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1448,7 +1761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1471,7 +1784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>32</v>
       </c>
@@ -1494,7 +1807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -1517,7 +1830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="n">
         <v>14100332</v>
       </c>
@@ -1540,7 +1853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
         <v>43</v>
       </c>
@@ -1563,7 +1876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
         <v>47</v>
       </c>
@@ -1586,7 +1899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
@@ -1609,7 +1922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
         <v>56</v>
       </c>
@@ -1632,7 +1945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
         <v>60</v>
       </c>
@@ -1655,7 +1968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1678,7 +1991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
         <v>68</v>
       </c>
@@ -1701,7 +2014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
         <v>72</v>
       </c>
@@ -1724,7 +2037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
         <v>76</v>
       </c>
@@ -1747,7 +2060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
         <v>80</v>
       </c>
@@ -1770,7 +2083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
         <v>84</v>
       </c>
@@ -1793,7 +2106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
         <v>89</v>
       </c>
@@ -1816,7 +2129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
         <v>93</v>
       </c>
@@ -1839,7 +2152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
         <v>97</v>
       </c>
@@ -1862,7 +2175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>101</v>
       </c>
@@ -1885,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
         <v>105</v>
       </c>
@@ -1908,7 +2221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
         <v>14100402</v>
       </c>
@@ -1931,7 +2244,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="n">
         <v>14100380</v>
       </c>
@@ -1954,7 +2267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" s="4" customFormat="true" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="n">
         <v>14100311</v>
       </c>
@@ -1977,7 +2290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="n">
         <v>14100403</v>
       </c>
@@ -2000,7 +2313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="true" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="20" t="n">
         <v>14100357</v>
       </c>
@@ -2023,131 +2336,323 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" s="21" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="40" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" s="2" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="23"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" s="2" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" s="2" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" s="2" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" s="23" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="n">
+        <v>14100422</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>1410393841</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="n">
+        <v>14100425</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>1410393842</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="25" t="n">
+        <v>14100424</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <v>1410393844</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="27" t="n">
+        <v>14100365</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="14" t="n">
+        <v>1410393845</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="27" t="n">
+        <v>14100407</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>1410393846</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="27" t="n">
+        <v>14100345</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>1410393847</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="28" t="n">
+        <v>14100337</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>1410393848</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="27" t="n">
+        <v>14100356</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>1410393849</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="29" t="n">
+        <v>14100362</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="14" t="n">
+        <v>1410393850</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="28" t="n">
+        <v>14100367</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>1410393851</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28" t="n">
+        <v>14100379</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <v>1410393852</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="28" t="n">
+        <v>14100382</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>1410393853</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="28" t="n">
+        <v>14100388</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <v>1410393854</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="3"/>
+    <row r="51" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G53" s="3"/>
-    </row>
-    <row r="90" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="E90" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F90" s="14" t="n">
-        <v>1410393840</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2163,12 +2668,12 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F41"/>
+  <autoFilter ref="A1:F40"/>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29 A31:B31">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6"/>
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.275694444444444" right="0.275694444444444" top="0.170138888888889" bottom="0.259722222222222" header="0.511811023622047" footer="0.157638888888889"/>
@@ -2192,7 +2697,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="25.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="31.7"/>
@@ -2200,7 +2705,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="34.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="30.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="17.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="26" width="24.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="31" width="24.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="5" width="9.1"/>
   </cols>
   <sheetData>
@@ -2226,214 +2731,214 @@
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="32" t="n">
+      <c r="A2" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="37" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G2" s="33" t="s">
-        <v>129</v>
+      <c r="G2" s="38" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>133</v>
+      <c r="A3" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>133</v>
+      <c r="A4" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="38"/>
+      <c r="A5" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>133</v>
+      <c r="A6" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="32" t="n">
+      <c r="D7" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="37" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>129</v>
+      <c r="G7" s="38" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="32" t="n">
+      <c r="E8" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="37" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>129</v>
+      <c r="G8" s="38" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>129</v>
+      <c r="E9" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>143</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>129</v>
+      <c r="E10" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>143</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>133</v>
+      <c r="A11" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="33"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="33"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="16" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2443,34 +2948,34 @@
     <row r="21" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" s="5" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2498,18 +3003,18 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="9.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="18.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="48.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="69.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="40.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="45" width="34.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="50" width="34.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="43.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="5" width="9.1"/>
   </cols>
@@ -2539,439 +3044,439 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="n">
+      <c r="A2" s="51" t="n">
         <v>99902536</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>146</v>
+      <c r="B2" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>160</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="n">
+      <c r="A3" s="51" t="n">
         <v>20290870</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="45" t="n">
+      <c r="E3" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="n">
+      <c r="A4" s="51" t="n">
         <v>20290482</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="45" t="n">
+      <c r="E4" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="n">
+      <c r="A5" s="56" t="n">
         <v>20290904</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="45" t="n">
+      <c r="B5" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="n">
+      <c r="A6" s="51" t="n">
         <v>20290632</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="45" t="n">
+      <c r="E6" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="n">
+      <c r="A7" s="51" t="n">
         <v>20290946</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="45" t="n">
+      <c r="E7" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="n">
+      <c r="A8" s="51" t="n">
         <v>20290458</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="45" t="n">
+      <c r="E8" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="n">
+      <c r="A9" s="51" t="n">
         <v>20290474</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="45" t="n">
+      <c r="E9" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="n">
+      <c r="A10" s="51" t="n">
         <v>20296505</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="45" t="n">
+      <c r="E10" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="n">
+      <c r="A11" s="51" t="n">
         <v>20341459</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="45" t="n">
+      <c r="E11" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="n">
+      <c r="A12" s="51" t="n">
         <v>20356192</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="45" t="n">
+      <c r="B12" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="51" t="n">
+      <c r="A13" s="56" t="n">
         <v>20390746</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="45" t="n">
+      <c r="B13" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="n">
+      <c r="A14" s="51" t="n">
         <v>20376364</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="45" t="n">
+      <c r="B14" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="n">
+      <c r="A15" s="51" t="n">
         <v>20376430</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="45" t="n">
+      <c r="E15" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="n">
+      <c r="A16" s="51" t="n">
         <v>20397196</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="49" t="s">
+      <c r="B16" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="50" t="n">
+        <v>1035716868</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="45" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="51" t="n">
+        <v>20438420</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="50" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="n">
-        <v>20438420</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="45" t="n">
+      <c r="G17" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="51" t="n">
+        <v>20474284</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="50" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="n">
-        <v>20474284</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="45" t="n">
+      <c r="G18" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="51" t="n">
+        <v>20474250</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="50" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="n">
-        <v>20474250</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="45" t="n">
-        <v>1035716868</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/src/accounting/danhmucmaypos.xlsx
+++ b/src/accounting/danhmucmaypos.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">POS_BIDV!$1:$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">POS_BIDV!$A$1:$F$40</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">POS_BIDV!$A$1:$F$39</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">pos_bidv!#ref!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="177">
   <si>
     <t xml:space="preserve">Mã TIP</t>
   </si>
@@ -354,15 +354,6 @@
   </si>
   <si>
     <t xml:space="preserve">Gian hàng L3-K3, TTTM Vincom Plaza Ngô Quyền, số 910A Đường Ngô Quyền, P.An Hải Bắc, Q.Sơn Trà, TP Đà Nẵng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DD.TINH_LUGTIMESCITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐĐKD LUG.VN TIMES CITY - CÔNG TY TNHH SÁNG TÂM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gian hàng TN-28, Tầng B1, TTTM Vincom Mega Mall Times City, 458 Minh Khai, Phường Vĩnh Tuy, Quận Hai Bà Trưng, Thành phố Hà Nội, Việt Nam</t>
   </si>
   <si>
     <t xml:space="preserve">DD.HCM-PDL</t>
@@ -408,6 +399,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH</t>
     </r>
@@ -417,6 +409,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_TIMESCT</t>
     </r>
@@ -432,6 +425,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH</t>
     </r>
@@ -441,6 +435,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_LUGTHD</t>
     </r>
@@ -453,6 +448,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH</t>
     </r>
@@ -462,6 +458,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_VCBTRIEU</t>
     </r>
@@ -474,6 +471,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH_</t>
     </r>
@@ -483,6 +481,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GO TLONG</t>
     </r>
@@ -495,6 +494,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH_</t>
     </r>
@@ -504,6 +504,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PSQ1</t>
     </r>
@@ -516,6 +517,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH_</t>
     </r>
@@ -525,6 +527,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">NHATRANG</t>
     </r>
@@ -537,6 +540,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH_</t>
     </r>
@@ -546,6 +550,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">LUGVHM</t>
     </r>
@@ -558,6 +563,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH_</t>
     </r>
@@ -567,6 +573,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GO DIAN</t>
     </r>
@@ -579,6 +586,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH_</t>
     </r>
@@ -588,6 +596,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GO HLONG</t>
     </r>
@@ -600,6 +609,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH_</t>
     </r>
@@ -609,6 +619,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GOLBIEN</t>
     </r>
@@ -621,6 +632,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH_</t>
     </r>
@@ -630,6 +642,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">LUGLBB</t>
     </r>
@@ -642,6 +655,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH</t>
     </r>
@@ -651,6 +665,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_THD</t>
     </r>
@@ -663,6 +678,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DD.TINH_</t>
     </r>
@@ -672,9 +688,35 @@
         <color rgb="FF0000FF"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">VC304</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DD.TINH_</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VINCOM 30</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DD.TINH_LUGPVT</t>
   </si>
   <si>
     <t xml:space="preserve">MPOS2101196504</t>
@@ -916,12 +958,7 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -930,12 +967,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -951,6 +982,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1147,43 +1191,43 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1267,7 +1311,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1287,7 +1331,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1607,8 +1651,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2223,7 +2267,7 @@
     </row>
     <row r="27" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="n">
-        <v>14100402</v>
+        <v>14100380</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>109</v>
@@ -2231,7 +2275,7 @@
       <c r="C27" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="12" t="s">
         <v>111</v>
       </c>
       <c r="E27" s="13" t="s">
@@ -2245,8 +2289,8 @@
       </c>
     </row>
     <row r="28" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
-        <v>14100380</v>
+      <c r="A28" s="20" t="n">
+        <v>14100311</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>112</v>
@@ -2263,13 +2307,13 @@
       <c r="F28" s="14" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G28" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="20" t="n">
-        <v>14100311</v>
+        <v>14100403</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>115</v>
@@ -2286,13 +2330,13 @@
       <c r="F29" s="14" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G29" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G29" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="20" t="n">
-        <v>14100403</v>
+        <v>14100357</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>118</v>
@@ -2313,70 +2357,70 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="n">
-        <v>14100357</v>
-      </c>
-      <c r="B31" s="11" t="s">
+    <row r="31" s="23" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="n">
+        <v>14100422</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>1410393841</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="n">
+        <v>14100425</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="14" t="n">
-        <v>1410393840</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" s="23" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="n">
-        <v>14100422</v>
-      </c>
-      <c r="B32" s="22" t="s">
+      <c r="C32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>1410393842</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="25" t="n">
+        <v>14100424</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="14" t="n">
-        <v>1410393841</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="n">
-        <v>14100425</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="14" t="n">
-        <v>1410393842</v>
+        <v>1410393844</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>12</v>
@@ -2384,68 +2428,68 @@
     </row>
     <row r="34" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="n">
-        <v>14100424</v>
+        <v>14100365</v>
       </c>
       <c r="B34" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <v>1410393845</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="25" t="n">
+        <v>14100407</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="14" t="n">
+        <v>1410393846</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="25" t="n">
+        <v>14100345</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="14" t="n">
-        <v>1410393844</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="n">
-        <v>14100365</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="14" t="n">
-        <v>1410393845</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="n">
-        <v>14100407</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>129</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="14" t="n">
-        <v>1410393846</v>
+        <v>1410393847</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>12</v>
@@ -2453,204 +2497,228 @@
     </row>
     <row r="37" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="n">
-        <v>14100345</v>
+        <v>14100337</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>1410393848</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="25" t="n">
+        <v>14100356</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>1410393849</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="28" t="n">
+        <v>14100362</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="14" t="n">
-        <v>1410393847</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28" t="n">
-        <v>14100337</v>
-      </c>
-      <c r="B38" s="26" t="s">
+      <c r="C39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>1410393850</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="27" t="n">
+        <v>14100367</v>
+      </c>
+      <c r="B40" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="14" t="n">
-        <v>1410393848</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="n">
-        <v>14100356</v>
-      </c>
-      <c r="B39" s="26" t="s">
+      <c r="C40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="14" t="n">
+        <v>1410393851</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="27" t="n">
+        <v>14100379</v>
+      </c>
+      <c r="B41" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="14" t="n">
-        <v>1410393849</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="n">
-        <v>14100362</v>
-      </c>
-      <c r="B40" s="26" t="s">
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>1410393852</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="27" t="n">
+        <v>14100382</v>
+      </c>
+      <c r="B42" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="14" t="n">
-        <v>1410393850</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="28" t="n">
-        <v>14100367</v>
-      </c>
-      <c r="B41" s="26" t="s">
+      <c r="C42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <v>1410393853</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="27" t="n">
+        <v>14100388</v>
+      </c>
+      <c r="B43" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="14" t="n">
-        <v>1410393851</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28" t="n">
-        <v>14100379</v>
-      </c>
-      <c r="B42" s="26" t="s">
+      <c r="C43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>1410393854</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>14100411</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="14" t="n">
-        <v>1410393852</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28" t="n">
-        <v>14100382</v>
-      </c>
-      <c r="B43" s="26" t="s">
+      <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <v>1410393855</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="29" t="n">
+        <v>14100402</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="14" t="n">
-        <v>1410393853</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="28" t="n">
-        <v>14100388</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="14" t="n">
-        <v>1410393854</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="14" t="n">
+        <v>1410393856</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="3"/>
+    <row r="50" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G52" s="3"/>
-    </row>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2668,12 +2736,18 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F40"/>
-  <conditionalFormatting sqref="A30:B30">
+  <autoFilter ref="A1:F39"/>
+  <conditionalFormatting sqref="B29">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29:B29 A31:B31">
+  <conditionalFormatting sqref="B28 B30">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28 A30">
+    <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.275694444444444" right="0.275694444444444" top="0.170138888888889" bottom="0.259722222222222" header="0.511811023622047" footer="0.157638888888889"/>
@@ -2735,99 +2809,99 @@
     </row>
     <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="36" t="s">
         <v>141</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>142</v>
       </c>
       <c r="F2" s="37" t="n">
         <v>1035716868</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="G3" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="G4" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="G5" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>147</v>
       </c>
       <c r="H5" s="43"/>
     </row>
     <row r="6" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="G6" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>13</v>
@@ -2836,21 +2910,21 @@
         <v>14</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="37" t="n">
         <v>1035716868</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>85</v>
@@ -2862,13 +2936,13 @@
         <v>87</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="37" t="n">
         <v>1035716868</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2882,47 +2956,47 @@
         <v>75</v>
       </c>
       <c r="E9" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="H9" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="H10" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="G11" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>147</v>
-      </c>
       <c r="H11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3048,22 +3122,22 @@
         <v>99902536</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="D2" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="50" t="s">
+      <c r="G2" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,22 +3145,22 @@
         <v>20290870</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" s="54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F3" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,13 +3177,13 @@
         <v>50</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,22 +3191,22 @@
         <v>20290904</v>
       </c>
       <c r="B5" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="D5" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>165</v>
-      </c>
       <c r="E5" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,13 +3223,13 @@
         <v>46</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,13 +3246,13 @@
         <v>42</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,13 +3269,13 @@
         <v>59</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,13 +3292,13 @@
         <v>31</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,13 +3315,13 @@
         <v>35</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3264,13 +3338,13 @@
         <v>79</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,22 +3352,22 @@
         <v>20356192</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="D12" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>168</v>
-      </c>
       <c r="E12" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,22 +3375,22 @@
         <v>20390746</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="D13" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>171</v>
-      </c>
       <c r="E13" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F13" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,22 +3398,22 @@
         <v>20376364</v>
       </c>
       <c r="B14" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="D14" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="55" t="s">
-        <v>174</v>
-      </c>
       <c r="E14" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F14" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3356,13 +3430,13 @@
         <v>63</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3370,22 +3444,22 @@
         <v>20397196</v>
       </c>
       <c r="B16" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="D16" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>177</v>
-      </c>
       <c r="E16" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F16" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,13 +3476,13 @@
         <v>83</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3425,13 +3499,13 @@
         <v>27</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3448,13 +3522,13 @@
         <v>108</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="50" t="n">
         <v>1035716868</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/src/accounting/danhmucmaypos.xlsx
+++ b/src/accounting/danhmucmaypos.xlsx
@@ -712,7 +712,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">VINCOM 30</t>
+      <t xml:space="preserve">VINCOM 304</t>
     </r>
   </si>
   <si>
@@ -1106,12 +1106,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1132,6 +1136,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1148,7 +1156,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1172,7 +1180,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1215,11 +1223,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1651,1008 +1659,1008 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="61.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="50.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="33.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="21.9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="5" width="9.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="28.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="61.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="50.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="33.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="21.9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="6" width="9.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="14" t="n">
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
+      <c r="A3" s="12" t="n">
         <v>14100397</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="14" t="n">
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="14" t="n">
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="14" t="n">
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14" t="n">
+      <c r="E6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14" t="n">
+      <c r="E7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14" t="n">
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="14" t="n">
+      <c r="E9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="12" t="n">
         <v>14100332</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="14" t="n">
+      <c r="E10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="14" t="n">
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="14" t="n">
+      <c r="E12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="16" t="n">
         <v>1410432530</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="14" t="n">
+      <c r="E14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="14" t="n">
+      <c r="E15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="14" t="n">
+      <c r="E16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="14" t="n">
+      <c r="E17" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="14" t="n">
+      <c r="E18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="14" t="n">
+      <c r="E19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="14" t="n">
+      <c r="E20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="F21" s="21" t="n">
         <v>1410184664</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="14" t="n">
+      <c r="E22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="F23" s="21" t="n">
         <v>1410184664</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="G23" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" s="5" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="19" t="n">
+      <c r="F24" s="21" t="n">
         <v>1410184664</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="G24" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" s="5" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="14" t="n">
+      <c r="E25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="G25" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="14" t="n">
+      <c r="E26" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="n">
+      <c r="G26" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="n">
         <v>14100380</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="14" t="n">
+      <c r="E27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="n">
+      <c r="G27" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="22" t="n">
         <v>14100311</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="14" t="n">
+      <c r="E28" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="n">
+      <c r="A29" s="22" t="n">
         <v>14100403</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="14" t="n">
+      <c r="E29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="n">
+      <c r="G29" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" s="5" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="22" t="n">
         <v>14100357</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="14" t="n">
+      <c r="E30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="16" t="n">
         <v>1410393840</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" s="23" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="n">
+      <c r="G30" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" s="25" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23" t="n">
         <v>14100422</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="14" t="n">
+      <c r="E31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="16" t="n">
         <v>1410393841</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="n">
+      <c r="A32" s="23" t="n">
         <v>14100425</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="14" t="n">
+      <c r="E32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="16" t="n">
         <v>1410393842</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="n">
+      <c r="A33" s="27" t="n">
         <v>14100424</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="14" t="n">
+      <c r="E33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="16" t="n">
         <v>1410393844</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25" t="n">
+      <c r="A34" s="27" t="n">
         <v>14100365</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="14" t="n">
+      <c r="E34" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="16" t="n">
         <v>1410393845</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="n">
+      <c r="A35" s="27" t="n">
         <v>14100407</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="14" t="n">
+      <c r="E35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="16" t="n">
         <v>1410393846</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="n">
+      <c r="A36" s="27" t="n">
         <v>14100345</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="14" t="n">
+      <c r="E36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="16" t="n">
         <v>1410393847</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="n">
+      <c r="A37" s="1" t="n">
         <v>14100337</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="14" t="n">
+      <c r="E37" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="16" t="n">
         <v>1410393848</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="n">
+      <c r="A38" s="27" t="n">
         <v>14100356</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="14" t="n">
+      <c r="E38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="16" t="n">
         <v>1410393849</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28" t="n">
+      <c r="G38" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="29" t="n">
         <v>14100362</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="14" t="n">
+      <c r="E39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="16" t="n">
         <v>1410393850</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="n">
+      <c r="G39" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>14100367</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="14" t="n">
+      <c r="E40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="16" t="n">
         <v>1410393851</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="n">
+      <c r="G40" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>14100379</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="14" t="n">
+      <c r="E41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="16" t="n">
         <v>1410393852</v>
       </c>
-      <c r="G41" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="n">
+      <c r="G41" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="true" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>14100382</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="14" t="n">
+      <c r="E42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="16" t="n">
         <v>1410393853</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="34.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="27" t="n">
+      <c r="A43" s="1" t="n">
         <v>14100388</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="14" t="n">
+      <c r="E43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="16" t="n">
         <v>1410393854</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2660,81 +2668,65 @@
       <c r="A44" s="1" t="n">
         <v>14100411</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="14" t="n">
+      <c r="E44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="16" t="n">
         <v>1410393855</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="n">
+      <c r="A45" s="30" t="n">
         <v>14100402</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="14" t="n">
+      <c r="E45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="16" t="n">
         <v>1410393856</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G48" s="3"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G50" s="3"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G51" s="3"/>
-    </row>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:F39"/>
   <conditionalFormatting sqref="B29">
@@ -2773,286 +2765,286 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="25.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="31.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="51.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="34.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="30.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="17.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="31" width="24.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="5" width="9.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="25.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="51.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="34.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="30.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="17.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="33" width="24.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="6" width="9.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="37" t="n">
+      <c r="F2" s="39" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="40" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="44" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="44" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="44" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="37" t="n">
+      <c r="F7" s="39" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="40" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="37" t="n">
+      <c r="F8" s="39" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="40" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F10" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" customFormat="false" ht="45.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="16" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="16" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" s="5" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+    </row>
+    <row r="26" s="6" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" s="6" customFormat="true" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3083,474 +3075,474 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="9.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="18.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="48.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="69.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="40.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="50" width="34.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="43.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="5" width="9.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="9.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="18.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="48.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="69.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="40.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="52" width="34.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="43.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="6" width="9.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="51" t="n">
+      <c r="A2" s="53" t="n">
         <v>99902536</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="51" t="n">
+      <c r="A3" s="53" t="n">
         <v>20290870</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="50" t="n">
+      <c r="F3" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="n">
+      <c r="A4" s="53" t="n">
         <v>20290482</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="50" t="n">
+      <c r="F4" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="56" t="n">
+      <c r="A5" s="58" t="n">
         <v>20290904</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="50" t="n">
+      <c r="F5" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="n">
+      <c r="A6" s="53" t="n">
         <v>20290632</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="50" t="n">
+      <c r="F6" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="n">
+      <c r="A7" s="53" t="n">
         <v>20290946</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="50" t="n">
+      <c r="F7" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="n">
+      <c r="A8" s="53" t="n">
         <v>20290458</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="50" t="n">
+      <c r="F8" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51" t="n">
+      <c r="A9" s="53" t="n">
         <v>20290474</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="50" t="n">
+      <c r="F9" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51" t="n">
+      <c r="A10" s="53" t="n">
         <v>20296505</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F10" s="50" t="n">
+      <c r="F10" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="51" t="n">
+      <c r="A11" s="53" t="n">
         <v>20341459</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F11" s="50" t="n">
+      <c r="F11" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="51" t="n">
+      <c r="A12" s="53" t="n">
         <v>20356192</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="50" t="n">
+      <c r="F12" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="56" t="n">
+      <c r="A13" s="58" t="n">
         <v>20390746</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="50" t="n">
+      <c r="F13" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="n">
+      <c r="A14" s="53" t="n">
         <v>20376364</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="50" t="n">
+      <c r="F14" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51" t="n">
+      <c r="A15" s="53" t="n">
         <v>20376430</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="50" t="n">
+      <c r="F15" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51" t="n">
+      <c r="A16" s="53" t="n">
         <v>20397196</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="56" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="50" t="n">
+      <c r="F16" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51" t="n">
+      <c r="A17" s="53" t="n">
         <v>20438420</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="50" t="n">
+      <c r="F17" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51" t="n">
+      <c r="A18" s="53" t="n">
         <v>20474284</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="50" t="n">
+      <c r="F18" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="51" t="n">
+      <c r="A19" s="53" t="n">
         <v>20474250</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="50" t="n">
+      <c r="F19" s="52" t="n">
         <v>1035716868</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/src/accounting/danhmucmaypos.xlsx
+++ b/src/accounting/danhmucmaypos.xlsx
@@ -711,6 +711,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">VINCOM 304</t>
     </r>
@@ -989,12 +990,14 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1659,8 +1662,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/accounting/danhmucmaypos.xlsx
+++ b/src/accounting/danhmucmaypos.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">14100401</t>
   </si>
   <si>
-    <t xml:space="preserve">DD.TINH_VINPEARLB27</t>
+    <t xml:space="preserve">DD.TINH_VINCOMROYAL</t>
   </si>
   <si>
     <t xml:space="preserve">ĐĐKD VINWONDERS NHA TRANG (B27) - CÔNG TY TNHH SÁNG TÂM</t>
@@ -1662,8 +1662,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
